--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11808.23826425115</v>
+        <v>2349839.414585979</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11808.23826425115</v>
+        <v>2349839.414585979</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28422.55647011535</v>
+        <v>1705353.388206922</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28422.55647011535</v>
+        <v>1705353.388206922</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113498547.22656</v>
+        <v>45909016.90356957</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11208.48003409327</v>
+        <v>1198572.537190818</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20751.72930102431</v>
+        <v>2111620.891431949</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30294.97856795533</v>
+        <v>3024669.24567308</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40850.6368546123</v>
+        <v>3882860.402037885</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51406.29514126926</v>
+        <v>4741051.55840269</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61059.03904807146</v>
+        <v>5653820.678746131</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70711.78295487368</v>
+        <v>6566589.799089571</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80364.52686167588</v>
+        <v>7479358.919433011</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90696.8639362117</v>
+        <v>8320530.148525083</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101114.7282834747</v>
+        <v>9178721.304889882</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111532.5926307378</v>
+        <v>10036912.46125469</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121950.4569780009</v>
+        <v>10895103.6176195</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132368.3213252639</v>
+        <v>11753294.77398431</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142786.185672527</v>
+        <v>12611485.93034912</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153204.05001979</v>
+        <v>13469677.08671393</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>132</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>85</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
